--- a/biology/Botanique/Meliaceae/Meliaceae.xlsx
+++ b/biology/Botanique/Meliaceae/Meliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Méliacées
 Les Meliaceae, en français Méliacées, sont une famille d'arbres et arbustes dicotylédones. Selon Watson &amp; Dallwitz elle comprend environ 50 genres et 575 espèces d'origine tropicale.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Meliaceae vient du genre type Melia dérivé du grec μελία / melía, « frêne », peut-être à cause de la ressemblance des feuilles du Melia azedarach avec celles du frêne[1],[2]. Le mot Melia lui-même est peut-être issu de μέλι / méli, « miel », à moins qu'il ne vienne directement de µέλι[3]. En effet, selon Théis « Les grecs avaient ainsi appelé le frêne, de µέλι, miel, à cause de l'espèce qui produit la manne fraiche qui est aussi douce que le miel »[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Meliaceae vient du genre type Melia dérivé du grec μελία / melía, « frêne », peut-être à cause de la ressemblance des feuilles du Melia azedarach avec celles du frêne,. Le mot Melia lui-même est peut-être issu de μέλι / méli, « miel », à moins qu'il ne vienne directement de µέλι. En effet, selon Théis « Les grecs avaient ainsi appelé le frêne, de µέλι, miel, à cause de l'espèce qui produit la manne fraiche qui est aussi douce que le miel ».
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont principalement des arbres ou des arbustes ou rarement des plantes herbacées des régions tropicales.
 Les feuilles sont le plus souvent alternes, composées pennées (rarement bipennées), sans stipules. Quelques espèces sont à feuilles caduques, perdant leur feuillage soit en hiver, soit pendant la saison sèche, la plupart sont sempervirentes.
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'air de répartition de l'essentiel des espèces est tropicale à subtropicale. On les trouve aussi bien dans l'ancien que dans le nouveau monde, ainsi qu'en Océanie.
 Seul un genre, Toona, s'étend vers le nord dans les régions tempérées de la Chine et au sud dans le sud-est de l'Australie, tandis qu'un autre, Melia, s'étend presque aussi loin vers le nord.
@@ -614,7 +632,9 @@
           <t>Intérêt économique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bois :
 le genre Swietenia d'Amérique fournit le bois d'« acajou » au sens le plus restreint du terme.
@@ -653,9 +673,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (22 juin 2010)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (22 juin 2010) :
 Aglaia
 Anthocarapa (en)
 Aphanamixis
@@ -707,7 +729,7 @@
 Vavaea (en)
 Walsura (en)
 Xylocarpus
-Selon NCBI  (22 juin 2010)[6] :
+Selon NCBI  (22 juin 2010) :
 Aglaia
 Anthocarapa
 Aphanamixis
@@ -758,7 +780,7 @@
 Vavaea
 Walsura
 Xylocarpus
-Selon DELTA Angio           (22 juin 2010)[7] :
+Selon DELTA Angio           (22 juin 2010) :
 Aglaia
 Anthocarapa
 Aphanamixis
@@ -807,7 +829,7 @@
 Vavaea
 Walsura
 Xylocarpus
-Selon ITIS      (22 juin 2010)[8] :
+Selon ITIS      (22 juin 2010) :
 Aglaia Lour.
 Aphanamixis Blume
 Azadirachta Adr. Juss.
